--- a/ comexcel/Test/Test/Temp/Excel.xlsx
+++ b/ comexcel/Test/Test/Temp/Excel.xlsx
@@ -90,16 +90,16 @@
     <t>HLAP</t>
   </si>
   <si>
+    <t>C79514</t>
+  </si>
+  <si>
+    <t>B-001037</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
     <t>HLAP-14-HK-01</t>
-  </si>
-  <si>
-    <t>C79514</t>
-  </si>
-  <si>
-    <t>B-001037</t>
-  </si>
-  <si>
-    <t>SEA</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -559,13 +559,13 @@
         <v>317.39999999999998</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="5">
         <v>41751</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2">
         <v>28</v>
@@ -574,7 +574,7 @@
         <v>21</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ comexcel/Test/Test/Temp/Excel.xlsx
+++ b/ comexcel/Test/Test/Temp/Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Invoice</t>
   </si>
@@ -100,13 +100,37 @@
   </si>
   <si>
     <t>HLAP-14-HK-01</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>2014/04</t>
+  </si>
+  <si>
+    <t>UD</t>
+  </si>
+  <si>
+    <t>HA0501.14S(B,C)</t>
+  </si>
+  <si>
+    <t>Lace</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>HLAP-14-HK-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +141,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="PMingLiU"/>
       <family val="1"/>
@@ -139,10 +193,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,9 +208,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般_HA131224S(B) invoice&amp;packing list" xfId="1"/>
+    <cellStyle name="一般_HA140313S(F) invoice&amp;packing list" xfId="2"/>
+    <cellStyle name="千分位_HA0501SEA-Invoice&amp;Packing List(B)1" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,26 +533,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -523,57 +604,103 @@
       <c r="Q1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" ht="16.5">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8">
+        <v>41781</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1747</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="12">
+        <v>7527.0808931658121</v>
+      </c>
+      <c r="L2" s="13" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="14" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="5">
         <v>41776</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>13575</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>317.39999999999998</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M3" s="5">
         <v>41751</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P3" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -589,7 +716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -601,7 +728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
